--- a/3_output/tablas/gse_tables/high_ajust_apbi.xlsx
+++ b/3_output/tablas/gse_tables/high_ajust_apbi.xlsx
@@ -1,21 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/ciortiz1_uc_cl/Documents/Investigación y proyectos/[COBA] Cohesión Barrial/dse-cob-tesis/3_output/tablas/gse_tables/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_8C6FFDCE8F79A813EC51CCF2F8EB623285B4A06D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>measure</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>chisq</t>
+  </si>
+  <si>
+    <t>cfi</t>
+  </si>
+  <si>
+    <t>rmsea</t>
+  </si>
+  <si>
+    <t>srmr</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +105,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +157,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +191,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +226,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,60 +402,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>measure</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>chisq</t>
-        </is>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>cfi</t>
-        </is>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>rmsea</t>
-        </is>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>srmr</t>
-        </is>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>0.2981112333723113</v>
+        <v>0.29811123337231132</v>
       </c>
     </row>
   </sheetData>

--- a/3_output/tablas/gse_tables/high_ajust_apbi.xlsx
+++ b/3_output/tablas/gse_tables/high_ajust_apbi.xlsx
@@ -1,63 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/ciortiz1_uc_cl/Documents/Investigación y proyectos/[COBA] Cohesión Barrial/dse-cob-tesis/3_output/tablas/gse_tables/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_8C6FFDCE8F79A813EC51CCF2F8EB623285B4A06D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>measure</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>chisq</t>
-  </si>
-  <si>
-    <t>cfi</t>
-  </si>
-  <si>
-    <t>rmsea</t>
-  </si>
-  <si>
-    <t>srmr</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,21 +63,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -157,7 +107,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -191,7 +141,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -226,10 +175,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -402,50 +350,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>measure</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>chisq</t>
+        </is>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>3</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>cfi</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>4</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>rmsea</t>
+        </is>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>5</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>srmr</t>
+        </is>
       </c>
       <c r="B5">
-        <v>0.29811123337231132</v>
+        <v>0.485884332837432</v>
       </c>
     </row>
   </sheetData>

--- a/3_output/tablas/gse_tables/high_ajust_apbi.xlsx
+++ b/3_output/tablas/gse_tables/high_ajust_apbi.xlsx
@@ -403,7 +403,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.485884332837432</v>
+        <v>0.4856394962580317</v>
       </c>
     </row>
   </sheetData>
